--- a/08-agosto/6-portal-cliente/DETALLE.xlsx
+++ b/08-agosto/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480FB5FF-20B1-467E-82F5-18D8947F452D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A791344D-4313-415F-8396-3DAE3303C827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17145" yWindow="1050" windowWidth="17475" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -561,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,6 +710,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1032,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1128,9 +1155,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="I4" s="54"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
@@ -1151,9 +1178,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="28"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
@@ -1174,9 +1201,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
@@ -1197,9 +1224,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
@@ -1220,9 +1247,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
@@ -1243,9 +1270,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
@@ -1266,9 +1293,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>

--- a/08-agosto/6-portal-cliente/DETALLE.xlsx
+++ b/08-agosto/6-portal-cliente/DETALLE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A791344D-4313-415F-8396-3DAE3303C827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EB7C24-5ABD-4A5B-823C-A7FDD720A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17145" yWindow="1050" windowWidth="17475" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18825" yWindow="510" windowWidth="16995" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="detalle " sheetId="1" r:id="rId1"/>
@@ -703,6 +703,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -710,27 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -1076,32 +1076,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -1155,9 +1155,9 @@
         <v>12</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="27"/>
       <c r="K4" s="33"/>
     </row>
@@ -1178,9 +1178,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="55"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="28"/>
       <c r="K5" s="35"/>
     </row>
@@ -1201,9 +1201,9 @@
         <v>27</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="56"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="19"/>
       <c r="K6" s="38"/>
     </row>
@@ -1224,9 +1224,9 @@
         <v>14</v>
       </c>
       <c r="F7" s="39"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="56"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="15"/>
       <c r="K7" s="40"/>
     </row>
@@ -1247,9 +1247,9 @@
         <v>14</v>
       </c>
       <c r="F8" s="41"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="57"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="24"/>
       <c r="K8" s="43"/>
     </row>
@@ -1270,9 +1270,9 @@
         <v>14</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="60"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="28"/>
       <c r="K9" s="35"/>
     </row>
@@ -1293,9 +1293,9 @@
         <v>12</v>
       </c>
       <c r="F10" s="41"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="57"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="24"/>
       <c r="K10" s="43"/>
     </row>
@@ -1313,32 +1313,32 @@
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1573,10 +1573,10 @@
       <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1609,10 +1609,10 @@
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1645,8 +1645,8 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -1665,10 +1665,10 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
